--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -58,43 +55,55 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cakes</t>
   </si>
   <si>
     <t>thank</t>
@@ -103,114 +112,90 @@
     <t>family</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>pie</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
@@ -220,37 +205,40 @@
     <t>bought</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>also</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -617,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>0.967741935483871</v>
@@ -736,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.310077519379845</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2727272727272727</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,95 +792,71 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L5">
+        <v>544</v>
+      </c>
+      <c r="M5">
+        <v>544</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.875</v>
-      </c>
-      <c r="L5">
-        <v>112</v>
-      </c>
-      <c r="M5">
-        <v>112</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
+      <c r="K6">
+        <v>0.8405797101449275</v>
+      </c>
+      <c r="L6">
+        <v>58</v>
+      </c>
+      <c r="M6">
+        <v>58</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.1513513513513514</v>
-      </c>
-      <c r="C6">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>157</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>0.8637770897832817</v>
-      </c>
-      <c r="L6">
-        <v>558</v>
-      </c>
-      <c r="M6">
-        <v>558</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -904,21 +868,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,21 +894,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,21 +920,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7229437229437229</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L10">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M10">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,21 +946,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,21 +972,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6901408450704225</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>797</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>797</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1034,21 +998,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6813559322033899</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L13">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="M13">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1060,21 +1024,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6514285714285715</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1086,21 +1050,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1117,16 +1081,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6364365971107544</v>
+        <v>0.625</v>
       </c>
       <c r="L16">
-        <v>793</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>793</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1138,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>453</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1164,21 +1128,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1190,47 +1154,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>0.6027397260273972</v>
+      </c>
+      <c r="L19">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>44</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>29</v>
-      </c>
-      <c r="K19">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L19">
-        <v>43</v>
-      </c>
-      <c r="M19">
-        <v>43</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6029411764705882</v>
+        <v>0.578125</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1247,16 +1211,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1268,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.578125</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1294,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5614035087719298</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1320,21 +1284,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1346,21 +1310,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5389221556886228</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1372,21 +1336,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1398,21 +1362,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5102040816326531</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1424,21 +1388,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4705882352941176</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1450,21 +1414,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4700854700854701</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1476,21 +1440,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.459016393442623</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1502,21 +1466,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4518072289156627</v>
+        <v>0.45</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1528,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1554,21 +1518,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4457831325301205</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1580,21 +1544,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.443609022556391</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1606,21 +1570,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1632,21 +1596,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4210526315789473</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1658,21 +1622,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.375</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L37">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="M37">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1684,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>255</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3385214007782101</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L38">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1710,21 +1674,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3308270676691729</v>
+        <v>0.3027397260273972</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1736,21 +1700,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>89</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3157894736842105</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1762,21 +1726,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.310958904109589</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L41">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1788,21 +1752,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>503</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2805755395683453</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1814,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2716049382716049</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1840,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2574257425742574</v>
+        <v>0.2443487621097955</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1866,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>75</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2535885167464115</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L45">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M45">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1892,21 +1856,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2522522522522522</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1918,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>83</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.25</v>
+        <v>0.2013245033112583</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1944,21 +1908,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>81</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2454251883745963</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L48">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="M48">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1970,21 +1934,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>701</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2100313479623825</v>
+        <v>0.1751918158567775</v>
       </c>
       <c r="L49">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="M49">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1996,21 +1960,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>252</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2095238095238095</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2022,15 +1986,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>83</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1967213114754098</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L51">
         <v>24</v>
@@ -2048,21 +2012,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1920529801324503</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2074,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1814569536423841</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L53">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="M53">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2100,47 +2064,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>618</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1769230769230769</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L54">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>642</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1610738255033557</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2152,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>125</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1585365853658537</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2178,21 +2142,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1435523114355231</v>
+        <v>0.1033210332103321</v>
       </c>
       <c r="L57">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2204,21 +2168,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>352</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1242937853107345</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2230,21 +2194,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>155</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1237113402061856</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L59">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2256,21 +2220,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1218487394957983</v>
+        <v>0.09429824561403509</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M60">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2282,21 +2246,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>209</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1162280701754386</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L61">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2308,21 +2272,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>403</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1159090909090909</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L62">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M62">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2334,73 +2298,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>389</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1143911439114391</v>
+        <v>0.07604017216642754</v>
       </c>
       <c r="L63">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M63">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>240</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1135135135135135</v>
+        <v>0.07002801120448179</v>
       </c>
       <c r="L64">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M64">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>328</v>
+        <v>996</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.0962962962962963</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2412,21 +2376,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>244</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.08591885441527446</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L66">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2438,21 +2402,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>383</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K67">
-        <v>0.07943925233644859</v>
+        <v>0.03892733564013841</v>
       </c>
       <c r="L67">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M67">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="N67">
         <v>0.98</v>
@@ -2464,85 +2428,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K68">
-        <v>0.06743185078909612</v>
-      </c>
-      <c r="L68">
-        <v>47</v>
-      </c>
-      <c r="M68">
-        <v>48</v>
-      </c>
-      <c r="N68">
-        <v>0.98</v>
-      </c>
-      <c r="O68">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K69">
-        <v>0.04797047970479705</v>
-      </c>
-      <c r="L69">
-        <v>26</v>
-      </c>
-      <c r="M69">
-        <v>26</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K70">
-        <v>0.04072790294627383</v>
-      </c>
-      <c r="L70">
-        <v>47</v>
-      </c>
-      <c r="M70">
-        <v>50</v>
-      </c>
-      <c r="N70">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O70">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
